--- a/artfynd/A 58066-2025 artfynd.xlsx
+++ b/artfynd/A 58066-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131033306</v>
       </c>
       <c r="B2" t="n">
-        <v>78997</v>
+        <v>79001</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>131033337</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>131033355</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>131033363</v>
       </c>
       <c r="B5" t="n">
-        <v>78642</v>
+        <v>78646</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>131033339</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>131033290</v>
       </c>
       <c r="B7" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>131033360</v>
       </c>
       <c r="B8" t="n">
-        <v>78905</v>
+        <v>78909</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>131033281</v>
       </c>
       <c r="B9" t="n">
-        <v>79858</v>
+        <v>79862</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>131033338</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131033340</v>
+        <v>131033361</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>78909</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1664,21 +1664,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1688,10 +1688,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395817</v>
+        <v>395806</v>
       </c>
       <c r="R11" t="n">
-        <v>6804597</v>
+        <v>6804660</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1760,10 +1760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131033361</v>
+        <v>131033340</v>
       </c>
       <c r="B12" t="n">
-        <v>78905</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1771,21 +1771,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395806</v>
+        <v>395817</v>
       </c>
       <c r="R12" t="n">
-        <v>6804660</v>
+        <v>6804597</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1870,7 +1870,7 @@
         <v>131033320</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>131033319</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>131033358</v>
       </c>
       <c r="B15" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131033336</v>
+        <v>131033318</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395777</v>
+        <v>395666</v>
       </c>
       <c r="R17" t="n">
-        <v>6804741</v>
+        <v>6804680</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2422,10 +2422,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131033335</v>
+        <v>131033336</v>
       </c>
       <c r="B18" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395768</v>
+        <v>395777</v>
       </c>
       <c r="R18" t="n">
-        <v>6804642</v>
+        <v>6804741</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2529,10 +2529,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131033318</v>
+        <v>131033335</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395666</v>
+        <v>395768</v>
       </c>
       <c r="R19" t="n">
-        <v>6804680</v>
+        <v>6804642</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 58066-2025 artfynd.xlsx
+++ b/artfynd/A 58066-2025 artfynd.xlsx
@@ -1332,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131033360</v>
+        <v>131033281</v>
       </c>
       <c r="B8" t="n">
-        <v>78909</v>
+        <v>79862</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,21 +1343,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395791</v>
+        <v>395662</v>
       </c>
       <c r="R8" t="n">
-        <v>6804722</v>
+        <v>6804783</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1439,10 +1439,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131033281</v>
+        <v>131033360</v>
       </c>
       <c r="B9" t="n">
-        <v>79862</v>
+        <v>78909</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1450,21 +1450,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395662</v>
+        <v>395791</v>
       </c>
       <c r="R9" t="n">
-        <v>6804783</v>
+        <v>6804722</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -2315,7 +2315,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131033318</v>
+        <v>131033336</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395666</v>
+        <v>395777</v>
       </c>
       <c r="R17" t="n">
-        <v>6804680</v>
+        <v>6804741</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2422,7 +2422,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131033336</v>
+        <v>131033318</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395777</v>
+        <v>395666</v>
       </c>
       <c r="R18" t="n">
-        <v>6804741</v>
+        <v>6804680</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 58066-2025 artfynd.xlsx
+++ b/artfynd/A 58066-2025 artfynd.xlsx
@@ -1332,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131033281</v>
+        <v>131033360</v>
       </c>
       <c r="B8" t="n">
-        <v>79862</v>
+        <v>78909</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,21 +1343,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395662</v>
+        <v>395791</v>
       </c>
       <c r="R8" t="n">
-        <v>6804783</v>
+        <v>6804722</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1439,10 +1439,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131033360</v>
+        <v>131033281</v>
       </c>
       <c r="B9" t="n">
-        <v>78909</v>
+        <v>79862</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1450,21 +1450,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395791</v>
+        <v>395662</v>
       </c>
       <c r="R9" t="n">
-        <v>6804722</v>
+        <v>6804783</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -2422,7 +2422,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131033318</v>
+        <v>131033335</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395666</v>
+        <v>395768</v>
       </c>
       <c r="R18" t="n">
-        <v>6804680</v>
+        <v>6804642</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2529,7 +2529,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131033335</v>
+        <v>131033318</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395768</v>
+        <v>395666</v>
       </c>
       <c r="R19" t="n">
-        <v>6804642</v>
+        <v>6804680</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 58066-2025 artfynd.xlsx
+++ b/artfynd/A 58066-2025 artfynd.xlsx
@@ -1332,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131033360</v>
+        <v>131033281</v>
       </c>
       <c r="B8" t="n">
-        <v>78909</v>
+        <v>79862</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,21 +1343,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395791</v>
+        <v>395662</v>
       </c>
       <c r="R8" t="n">
-        <v>6804722</v>
+        <v>6804783</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1439,10 +1439,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131033281</v>
+        <v>131033360</v>
       </c>
       <c r="B9" t="n">
-        <v>79862</v>
+        <v>78909</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1450,21 +1450,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395662</v>
+        <v>395791</v>
       </c>
       <c r="R9" t="n">
-        <v>6804783</v>
+        <v>6804722</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1867,7 +1867,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131033320</v>
+        <v>131033319</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395688</v>
+        <v>395654</v>
       </c>
       <c r="R13" t="n">
-        <v>6804619</v>
+        <v>6804639</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1974,7 +1974,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131033319</v>
+        <v>131033320</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395654</v>
+        <v>395688</v>
       </c>
       <c r="R14" t="n">
-        <v>6804639</v>
+        <v>6804619</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2422,7 +2422,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131033335</v>
+        <v>131033318</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395768</v>
+        <v>395666</v>
       </c>
       <c r="R18" t="n">
-        <v>6804642</v>
+        <v>6804680</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2529,7 +2529,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131033318</v>
+        <v>131033335</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395666</v>
+        <v>395768</v>
       </c>
       <c r="R19" t="n">
-        <v>6804680</v>
+        <v>6804642</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 58066-2025 artfynd.xlsx
+++ b/artfynd/A 58066-2025 artfynd.xlsx
@@ -1332,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131033281</v>
+        <v>131033360</v>
       </c>
       <c r="B8" t="n">
-        <v>79862</v>
+        <v>78909</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,21 +1343,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395662</v>
+        <v>395791</v>
       </c>
       <c r="R8" t="n">
-        <v>6804783</v>
+        <v>6804722</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1439,10 +1439,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131033360</v>
+        <v>131033281</v>
       </c>
       <c r="B9" t="n">
-        <v>78909</v>
+        <v>79862</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1450,21 +1450,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395791</v>
+        <v>395662</v>
       </c>
       <c r="R9" t="n">
-        <v>6804722</v>
+        <v>6804783</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1653,10 +1653,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131033361</v>
+        <v>131033340</v>
       </c>
       <c r="B11" t="n">
-        <v>78909</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1664,21 +1664,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1688,10 +1688,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395806</v>
+        <v>395817</v>
       </c>
       <c r="R11" t="n">
-        <v>6804660</v>
+        <v>6804597</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1760,10 +1760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131033340</v>
+        <v>131033361</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>78909</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1771,21 +1771,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395817</v>
+        <v>395806</v>
       </c>
       <c r="R12" t="n">
-        <v>6804597</v>
+        <v>6804660</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1867,7 +1867,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131033319</v>
+        <v>131033320</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395654</v>
+        <v>395688</v>
       </c>
       <c r="R13" t="n">
-        <v>6804639</v>
+        <v>6804619</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1974,7 +1974,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131033320</v>
+        <v>131033319</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395688</v>
+        <v>395654</v>
       </c>
       <c r="R14" t="n">
-        <v>6804619</v>
+        <v>6804639</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2422,7 +2422,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131033318</v>
+        <v>131033335</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395666</v>
+        <v>395768</v>
       </c>
       <c r="R18" t="n">
-        <v>6804680</v>
+        <v>6804642</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2529,7 +2529,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131033335</v>
+        <v>131033318</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395768</v>
+        <v>395666</v>
       </c>
       <c r="R19" t="n">
-        <v>6804642</v>
+        <v>6804680</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 58066-2025 artfynd.xlsx
+++ b/artfynd/A 58066-2025 artfynd.xlsx
@@ -1653,10 +1653,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131033340</v>
+        <v>131033361</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>78909</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1664,21 +1664,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1688,10 +1688,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395817</v>
+        <v>395806</v>
       </c>
       <c r="R11" t="n">
-        <v>6804597</v>
+        <v>6804660</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1760,10 +1760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131033361</v>
+        <v>131033340</v>
       </c>
       <c r="B12" t="n">
-        <v>78909</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1771,21 +1771,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395806</v>
+        <v>395817</v>
       </c>
       <c r="R12" t="n">
-        <v>6804660</v>
+        <v>6804597</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2315,7 +2315,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131033336</v>
+        <v>131033335</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395777</v>
+        <v>395768</v>
       </c>
       <c r="R17" t="n">
-        <v>6804741</v>
+        <v>6804642</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2422,7 +2422,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131033335</v>
+        <v>131033318</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395768</v>
+        <v>395666</v>
       </c>
       <c r="R18" t="n">
-        <v>6804642</v>
+        <v>6804680</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2529,7 +2529,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131033318</v>
+        <v>131033336</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395666</v>
+        <v>395777</v>
       </c>
       <c r="R19" t="n">
-        <v>6804680</v>
+        <v>6804741</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 58066-2025 artfynd.xlsx
+++ b/artfynd/A 58066-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131033306</v>
       </c>
       <c r="B2" t="n">
-        <v>79001</v>
+        <v>79002</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131033337</v>
+        <v>131033355</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395826</v>
+        <v>396033</v>
       </c>
       <c r="R3" t="n">
-        <v>6804765</v>
+        <v>6804799</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131033355</v>
+        <v>131033337</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>396033</v>
+        <v>395826</v>
       </c>
       <c r="R4" t="n">
-        <v>6804799</v>
+        <v>6804765</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1004,7 +1004,7 @@
         <v>131033363</v>
       </c>
       <c r="B5" t="n">
-        <v>78646</v>
+        <v>78647</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>131033339</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131033360</v>
+        <v>131033281</v>
       </c>
       <c r="B8" t="n">
-        <v>78909</v>
+        <v>79863</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,21 +1343,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395791</v>
+        <v>395662</v>
       </c>
       <c r="R8" t="n">
-        <v>6804722</v>
+        <v>6804783</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1439,10 +1439,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131033281</v>
+        <v>131033360</v>
       </c>
       <c r="B9" t="n">
-        <v>79862</v>
+        <v>78910</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1450,21 +1450,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395662</v>
+        <v>395791</v>
       </c>
       <c r="R9" t="n">
-        <v>6804783</v>
+        <v>6804722</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1549,7 +1549,7 @@
         <v>131033338</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>131033361</v>
       </c>
       <c r="B11" t="n">
-        <v>78909</v>
+        <v>78910</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>131033340</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131033320</v>
+        <v>131033319</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395688</v>
+        <v>395654</v>
       </c>
       <c r="R13" t="n">
-        <v>6804619</v>
+        <v>6804639</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1974,10 +1974,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131033319</v>
+        <v>131033320</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395654</v>
+        <v>395688</v>
       </c>
       <c r="R14" t="n">
-        <v>6804639</v>
+        <v>6804619</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2318,7 +2318,7 @@
         <v>131033335</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>131033318</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>131033336</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/artfynd/A 58066-2025 artfynd.xlsx
+++ b/artfynd/A 58066-2025 artfynd.xlsx
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131033355</v>
+        <v>131033337</v>
       </c>
       <c r="B3" t="n">
         <v>79244</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>396033</v>
+        <v>395826</v>
       </c>
       <c r="R3" t="n">
-        <v>6804799</v>
+        <v>6804765</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,7 +894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131033337</v>
+        <v>131033355</v>
       </c>
       <c r="B4" t="n">
         <v>79244</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395826</v>
+        <v>396033</v>
       </c>
       <c r="R4" t="n">
-        <v>6804765</v>
+        <v>6804799</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1332,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131033281</v>
+        <v>131033360</v>
       </c>
       <c r="B8" t="n">
-        <v>79863</v>
+        <v>78910</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,21 +1343,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395662</v>
+        <v>395791</v>
       </c>
       <c r="R8" t="n">
-        <v>6804783</v>
+        <v>6804722</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1439,10 +1439,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131033360</v>
+        <v>131033281</v>
       </c>
       <c r="B9" t="n">
-        <v>78910</v>
+        <v>79863</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1450,21 +1450,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395791</v>
+        <v>395662</v>
       </c>
       <c r="R9" t="n">
-        <v>6804722</v>
+        <v>6804783</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1867,7 +1867,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131033319</v>
+        <v>131033320</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395654</v>
+        <v>395688</v>
       </c>
       <c r="R13" t="n">
-        <v>6804639</v>
+        <v>6804619</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1974,7 +1974,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131033320</v>
+        <v>131033319</v>
       </c>
       <c r="B14" t="n">
         <v>79244</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395688</v>
+        <v>395654</v>
       </c>
       <c r="R14" t="n">
-        <v>6804619</v>
+        <v>6804639</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2315,7 +2315,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131033335</v>
+        <v>131033336</v>
       </c>
       <c r="B17" t="n">
         <v>79244</v>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395768</v>
+        <v>395777</v>
       </c>
       <c r="R17" t="n">
-        <v>6804642</v>
+        <v>6804741</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2422,7 +2422,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131033318</v>
+        <v>131033335</v>
       </c>
       <c r="B18" t="n">
         <v>79244</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395666</v>
+        <v>395768</v>
       </c>
       <c r="R18" t="n">
-        <v>6804680</v>
+        <v>6804642</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2529,7 +2529,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131033336</v>
+        <v>131033318</v>
       </c>
       <c r="B19" t="n">
         <v>79244</v>
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395777</v>
+        <v>395666</v>
       </c>
       <c r="R19" t="n">
-        <v>6804741</v>
+        <v>6804680</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 58066-2025 artfynd.xlsx
+++ b/artfynd/A 58066-2025 artfynd.xlsx
@@ -1332,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131033360</v>
+        <v>131033281</v>
       </c>
       <c r="B8" t="n">
-        <v>78910</v>
+        <v>79863</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,21 +1343,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395791</v>
+        <v>395662</v>
       </c>
       <c r="R8" t="n">
-        <v>6804722</v>
+        <v>6804783</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1439,10 +1439,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131033281</v>
+        <v>131033360</v>
       </c>
       <c r="B9" t="n">
-        <v>79863</v>
+        <v>78910</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1450,21 +1450,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395662</v>
+        <v>395791</v>
       </c>
       <c r="R9" t="n">
-        <v>6804783</v>
+        <v>6804722</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1653,10 +1653,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131033361</v>
+        <v>131033340</v>
       </c>
       <c r="B11" t="n">
-        <v>78910</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1664,21 +1664,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1688,10 +1688,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395806</v>
+        <v>395817</v>
       </c>
       <c r="R11" t="n">
-        <v>6804660</v>
+        <v>6804597</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1760,10 +1760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131033340</v>
+        <v>131033361</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>78910</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1771,21 +1771,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395817</v>
+        <v>395806</v>
       </c>
       <c r="R12" t="n">
-        <v>6804597</v>
+        <v>6804660</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1867,7 +1867,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131033320</v>
+        <v>131033319</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395688</v>
+        <v>395654</v>
       </c>
       <c r="R13" t="n">
-        <v>6804619</v>
+        <v>6804639</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1974,7 +1974,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131033319</v>
+        <v>131033320</v>
       </c>
       <c r="B14" t="n">
         <v>79244</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395654</v>
+        <v>395688</v>
       </c>
       <c r="R14" t="n">
-        <v>6804639</v>
+        <v>6804619</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD14" t="b">

--- a/artfynd/A 58066-2025 artfynd.xlsx
+++ b/artfynd/A 58066-2025 artfynd.xlsx
@@ -1332,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131033281</v>
+        <v>131033360</v>
       </c>
       <c r="B8" t="n">
-        <v>79863</v>
+        <v>78910</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,21 +1343,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395662</v>
+        <v>395791</v>
       </c>
       <c r="R8" t="n">
-        <v>6804783</v>
+        <v>6804722</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1439,10 +1439,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131033360</v>
+        <v>131033281</v>
       </c>
       <c r="B9" t="n">
-        <v>78910</v>
+        <v>79863</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1450,21 +1450,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395791</v>
+        <v>395662</v>
       </c>
       <c r="R9" t="n">
-        <v>6804722</v>
+        <v>6804783</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1653,10 +1653,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131033340</v>
+        <v>131033361</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>78910</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1664,21 +1664,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1688,10 +1688,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395817</v>
+        <v>395806</v>
       </c>
       <c r="R11" t="n">
-        <v>6804597</v>
+        <v>6804660</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1760,10 +1760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131033361</v>
+        <v>131033340</v>
       </c>
       <c r="B12" t="n">
-        <v>78910</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1771,21 +1771,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395806</v>
+        <v>395817</v>
       </c>
       <c r="R12" t="n">
-        <v>6804660</v>
+        <v>6804597</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1867,7 +1867,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131033319</v>
+        <v>131033320</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395654</v>
+        <v>395688</v>
       </c>
       <c r="R13" t="n">
-        <v>6804639</v>
+        <v>6804619</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1974,7 +1974,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131033320</v>
+        <v>131033319</v>
       </c>
       <c r="B14" t="n">
         <v>79244</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395688</v>
+        <v>395654</v>
       </c>
       <c r="R14" t="n">
-        <v>6804619</v>
+        <v>6804639</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD14" t="b">

--- a/artfynd/A 58066-2025 artfynd.xlsx
+++ b/artfynd/A 58066-2025 artfynd.xlsx
@@ -1332,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131033360</v>
+        <v>131033281</v>
       </c>
       <c r="B8" t="n">
-        <v>78910</v>
+        <v>79863</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,21 +1343,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395791</v>
+        <v>395662</v>
       </c>
       <c r="R8" t="n">
-        <v>6804722</v>
+        <v>6804783</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1439,10 +1439,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131033281</v>
+        <v>131033360</v>
       </c>
       <c r="B9" t="n">
-        <v>79863</v>
+        <v>78910</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1450,21 +1450,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395662</v>
+        <v>395791</v>
       </c>
       <c r="R9" t="n">
-        <v>6804783</v>
+        <v>6804722</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1867,7 +1867,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131033320</v>
+        <v>131033319</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395688</v>
+        <v>395654</v>
       </c>
       <c r="R13" t="n">
-        <v>6804619</v>
+        <v>6804639</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1974,7 +1974,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131033319</v>
+        <v>131033320</v>
       </c>
       <c r="B14" t="n">
         <v>79244</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395654</v>
+        <v>395688</v>
       </c>
       <c r="R14" t="n">
-        <v>6804639</v>
+        <v>6804619</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2315,7 +2315,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131033336</v>
+        <v>131033335</v>
       </c>
       <c r="B17" t="n">
         <v>79244</v>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395777</v>
+        <v>395768</v>
       </c>
       <c r="R17" t="n">
-        <v>6804741</v>
+        <v>6804642</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2422,7 +2422,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131033335</v>
+        <v>131033318</v>
       </c>
       <c r="B18" t="n">
         <v>79244</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395768</v>
+        <v>395666</v>
       </c>
       <c r="R18" t="n">
-        <v>6804642</v>
+        <v>6804680</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2529,7 +2529,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131033318</v>
+        <v>131033336</v>
       </c>
       <c r="B19" t="n">
         <v>79244</v>
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395666</v>
+        <v>395777</v>
       </c>
       <c r="R19" t="n">
-        <v>6804680</v>
+        <v>6804741</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 58066-2025 artfynd.xlsx
+++ b/artfynd/A 58066-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131033306</v>
       </c>
       <c r="B2" t="n">
-        <v>79002</v>
+        <v>79003</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>131033337</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>131033355</v>
       </c>
       <c r="B4" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>131033363</v>
       </c>
       <c r="B5" t="n">
-        <v>78647</v>
+        <v>78648</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>131033339</v>
       </c>
       <c r="B6" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>131033281</v>
       </c>
       <c r="B8" t="n">
-        <v>79863</v>
+        <v>79864</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>131033360</v>
       </c>
       <c r="B9" t="n">
-        <v>78910</v>
+        <v>78911</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>131033338</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131033361</v>
+        <v>131033340</v>
       </c>
       <c r="B11" t="n">
-        <v>78910</v>
+        <v>79245</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1664,21 +1664,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1688,10 +1688,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395806</v>
+        <v>395817</v>
       </c>
       <c r="R11" t="n">
-        <v>6804660</v>
+        <v>6804597</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1760,10 +1760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131033340</v>
+        <v>131033361</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>78911</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1771,21 +1771,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395817</v>
+        <v>395806</v>
       </c>
       <c r="R12" t="n">
-        <v>6804597</v>
+        <v>6804660</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1870,7 +1870,7 @@
         <v>131033319</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>131033320</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>131033335</v>
       </c>
       <c r="B17" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>131033318</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>131033336</v>
       </c>
       <c r="B19" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/artfynd/A 58066-2025 artfynd.xlsx
+++ b/artfynd/A 58066-2025 artfynd.xlsx
@@ -1332,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131033281</v>
+        <v>131033360</v>
       </c>
       <c r="B8" t="n">
-        <v>79864</v>
+        <v>78911</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,21 +1343,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395662</v>
+        <v>395791</v>
       </c>
       <c r="R8" t="n">
-        <v>6804783</v>
+        <v>6804722</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1439,10 +1439,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131033360</v>
+        <v>131033281</v>
       </c>
       <c r="B9" t="n">
-        <v>78911</v>
+        <v>79864</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1450,21 +1450,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395791</v>
+        <v>395662</v>
       </c>
       <c r="R9" t="n">
-        <v>6804722</v>
+        <v>6804783</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1867,7 +1867,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131033319</v>
+        <v>131033320</v>
       </c>
       <c r="B13" t="n">
         <v>79245</v>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395654</v>
+        <v>395688</v>
       </c>
       <c r="R13" t="n">
-        <v>6804639</v>
+        <v>6804619</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1974,7 +1974,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131033320</v>
+        <v>131033319</v>
       </c>
       <c r="B14" t="n">
         <v>79245</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395688</v>
+        <v>395654</v>
       </c>
       <c r="R14" t="n">
-        <v>6804619</v>
+        <v>6804639</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD14" t="b">
